--- a/coin_in_by_denom.xlsx
+++ b/coin_in_by_denom.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>Denom</t>
   </si>
@@ -22,21 +22,26 @@
     <t>Coin In</t>
   </si>
   <si>
-    <t>$136,294.17</t>
+    <t>Day's Total</t>
   </si>
   <si>
-    <t>$0.00</t>
-  </si>
-  <si>
-    <t>Total</t>
+    <t>$32,588.20</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+  <fonts count="2">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -64,8 +69,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -73,6 +79,222 @@
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:style val="11"/>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Coin in by denom</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+    </c:title>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Coin In</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:dLbls>
+            <c:showVal val="1"/>
+          </c:dLbls>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$A$2:$A$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0.01</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.25</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>10</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$2:$B$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>3364.7</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4562</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4424.5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7802</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4095</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>8340</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:axId val="50010001"/>
+        <c:axId val="50010002"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="50010001"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Denom</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="50010002"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="50010002"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Coin in</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="50010001"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>238125</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>542925</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -360,17 +582,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:B11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:2">
-      <c r="A1" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
     </row>
@@ -378,36 +600,60 @@
       <c r="A2">
         <v>0.01</v>
       </c>
-      <c r="B2" t="s">
-        <v>2</v>
+      <c r="B2">
+        <v>3364.7</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3">
         <v>0.25</v>
       </c>
-      <c r="B3" t="s">
-        <v>3</v>
+      <c r="B3">
+        <v>4562</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4">
+        <v>0.5</v>
+      </c>
+      <c r="B4">
+        <v>4424.5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5">
         <v>1</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B5">
+        <v>7802</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>4095</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7">
+        <v>10</v>
+      </c>
+      <c r="B7">
+        <v>8340</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B11" s="1" t="s">
         <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
-      <c r="A5" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5">
-        <f>SUM(B1:B4)</f>
-        <v>0</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/coin_in_by_denom.xlsx
+++ b/coin_in_by_denom.xlsx
@@ -25,7 +25,7 @@
     <t>Day's Total</t>
   </si>
   <si>
-    <t>$32,588.20</t>
+    <t>$30,360.42</t>
   </si>
 </sst>
 </file>
@@ -160,22 +160,22 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>3364.7</c:v>
+                  <c:v>2360.92</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4562</c:v>
+                  <c:v>4266</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4424.5</c:v>
+                  <c:v>4247.5</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>7802</c:v>
+                  <c:v>7331</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>4095</c:v>
+                  <c:v>3795</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>8340</c:v>
+                  <c:v>8360</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -601,7 +601,7 @@
         <v>0.01</v>
       </c>
       <c r="B2">
-        <v>3364.7</v>
+        <v>2360.92</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -609,7 +609,7 @@
         <v>0.25</v>
       </c>
       <c r="B3">
-        <v>4562</v>
+        <v>4266</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -617,7 +617,7 @@
         <v>0.5</v>
       </c>
       <c r="B4">
-        <v>4424.5</v>
+        <v>4247.5</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -625,7 +625,7 @@
         <v>1</v>
       </c>
       <c r="B5">
-        <v>7802</v>
+        <v>7331</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -633,7 +633,7 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>4095</v>
+        <v>3795</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -641,7 +641,7 @@
         <v>10</v>
       </c>
       <c r="B7">
-        <v>8340</v>
+        <v>8360</v>
       </c>
     </row>
     <row r="11" spans="1:2">
